--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3855253.979675325</v>
+        <v>3851241.369661333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7377105.264245782</v>
+        <v>7377105.264245781</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.41582219992112</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>74.75769145492424</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>54.26003672910186</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>247.7955506424506</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>240.264871952341</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>93.92581751461734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>37.59617708813283</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>312.4927912861818</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.794425514577</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>123.9334245782914</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>43.58645893187794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.85912858529866</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.94435783112433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.623597659135752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.14863908058132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>60.32297266393989</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.6356839950556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>180.4644482257595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>87.61360486369085</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.602497644398836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>221.6488161050621</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.167618932618</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669912</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4433,22 +4433,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836221</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836221</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836221</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836221</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836221</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836221</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.200456328343</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392465</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4670,22 +4670,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720.7556739678756</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>551.8194910399687</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.60866391532</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981154</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>902.4041387981154</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>902.4041387981154</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>481.6572696514548</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1883.267821894677</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1691.581937721503</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1469.815322291029</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1180.712455416673</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1180.712455416673</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>891.2952853797119</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>663.3057344816946</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3057344816946</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,31 +5056,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5181,31 +5181,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>417.9651836029407</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898186995</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.530292372933</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>853.594109445026</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>703.4774700326902</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>555.5643764502971</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>408.6744289523867</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487568</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.378057281681</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346703</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.178757203173</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>120.6800663848338</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.844599961805</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.908417033898</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.791777621562</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.376853076439</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.692364870552</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.275194833592</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.285643935575</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.493064792045</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.630058392502</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1978.028593415444</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.953366759641</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3114.186543342964</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3114.186543342964</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2964.069903930629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.617138214751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.627587316734</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.835008173204</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1327.139029956954</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1106.346450813424</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729774</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801867</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.397703389532</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807138</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309228</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024108</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650997</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4180.298290638522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>4180.298290638522</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3890.881120601562</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3662.891569703544</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3442.098990560014</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.6402955209705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.961055692959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>75.37549921168753</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>86.11098998262929</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.19629618688168</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5618377758850954</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>58.82035778287832</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.2294825375385</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>64.53565828418201</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635297.7181999518</v>
+        <v>635297.7181999519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176757</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
@@ -26346,16 +26346,16 @@
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,28 +26420,28 @@
         <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294429</v>
+        <v>-725907.0837294427</v>
       </c>
       <c r="C6" t="n">
-        <v>602837.6619981504</v>
+        <v>602837.6619981499</v>
       </c>
       <c r="D6" t="n">
         <v>602837.6619981499</v>
       </c>
       <c r="E6" t="n">
-        <v>349875.8547797122</v>
+        <v>349528.4755253558</v>
       </c>
       <c r="F6" t="n">
-        <v>675288.3165870672</v>
+        <v>674940.9373327106</v>
       </c>
       <c r="G6" t="n">
-        <v>675288.3165870672</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="H6" t="n">
-        <v>675288.3165870674</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="I6" t="n">
-        <v>675288.3165870673</v>
+        <v>674940.9373327107</v>
       </c>
       <c r="J6" t="n">
-        <v>457757.1141897902</v>
+        <v>457409.734935433</v>
       </c>
       <c r="K6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327106</v>
       </c>
       <c r="L6" t="n">
-        <v>675288.3165870673</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="M6" t="n">
-        <v>590233.2886515555</v>
+        <v>589885.9093971989</v>
       </c>
       <c r="N6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327106</v>
       </c>
       <c r="O6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327106</v>
       </c>
       <c r="P6" t="n">
-        <v>675288.3165870672</v>
+        <v>674940.9373327106</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3180194635594</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>91.26811680410398</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.951801476511</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>117.4773411285569</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>141.6654981199208</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54.68965550359502</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>181.9527721880364</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>57.23830939228719</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414766</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>42.09238368073686</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>45.34569373816939</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.43922632925412e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>572.8682992214874</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>465.2641870096811</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458095</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>434.1786358382034</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>391.6051949514474</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>153.9723775119818</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>355.4083096598242</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960748</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>430.272054777043</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>327.4227480353221</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013651</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991432</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>291.582391393759</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715732</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>27.1347508453151</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>213.2742757378059</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740565</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579322</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3851241.369661333</v>
+        <v>3853001.899964117</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482967</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>54.2600367291013</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.26003672910186</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>240.264871952341</v>
+        <v>36.34690181272143</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>37.59617708813283</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.794425514577</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>112.5284434523311</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4375,7 +4375,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.9541770656748</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
         <v>529.0179941377679</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1872.48643018031</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1617.801941974423</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1328.384771937462</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395221039445</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.6026418959145</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594926</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.259159988175</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4713,31 +4713,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4755,10 +4755,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1889.318611635834</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1600.215744761477</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
         <v>1600.215744761477</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,37 +4898,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5181,22 +5181,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,19 +5366,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069454</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
         <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,13 +5460,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
         <v>1746.193029533436</v>
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,13 +5600,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961522</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
         <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.53275017731</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
         <v>2516.421633107662</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
         <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132772</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
         <v>2092.798483612594</v>
@@ -5901,22 +5901,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,34 +6363,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7080,13 +7080,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,40 +23904,40 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>81.26583631856553</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>57.2291039219422</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>81.26583631856555</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>32.89260457060011</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635297.7181999518</v>
+        <v>635297.7181999517</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176755</v>
@@ -26325,34 +26325,34 @@
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977558</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813246</v>
@@ -26426,22 +26426,22 @@
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294427</v>
+        <v>-725907.0837294426</v>
       </c>
       <c r="C6" t="n">
-        <v>602837.6619981499</v>
+        <v>602837.6619981498</v>
       </c>
       <c r="D6" t="n">
-        <v>602837.6619981499</v>
+        <v>602837.6619981497</v>
       </c>
       <c r="E6" t="n">
-        <v>349528.4755253558</v>
+        <v>349841.1168542769</v>
       </c>
       <c r="F6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="G6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="H6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="I6" t="n">
-        <v>674940.9373327107</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="J6" t="n">
-        <v>457409.734935433</v>
+        <v>457722.376264354</v>
       </c>
       <c r="K6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="L6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="M6" t="n">
-        <v>589885.9093971989</v>
+        <v>590198.55072612</v>
       </c>
       <c r="N6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="O6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="P6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616319</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>94.35543628911105</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>231.951801476511</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>141.6654981199208</v>
+        <v>345.5834682595403</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>181.9527721880364</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414766</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.43922632925412e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779101</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32086,28 +32086,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>572.8682992214874</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>699.0496615458095</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,13 +32338,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,28 +32560,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>434.1786358382034</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334657</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>430.272054777043</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>556.4534171013651</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>291.582391393759</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
